--- a/data/Blood measures data/Copy of Fiber Study Blood Results.xlsx
+++ b/data/Blood measures data/Copy of Fiber Study Blood Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leigh_greathouse/Box/Fiber and the Gut Microbiome/Blood measures data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahp\Box\Research\Greathouse-Padgett\Fiber_Intervention_Study\data\Blood measures data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0D5CA3-E429-024B-AAA3-190D442F088D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6ADEDE-D29E-4A8F-9278-3E2D52A2BB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{22F48490-CD36-48D8-937C-EA9B73184C44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22F48490-CD36-48D8-937C-EA9B73184C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Glucose</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Sodium</t>
   </si>
   <si>
-    <t>Potassium Chloride</t>
-  </si>
-  <si>
     <t>Carbon_Dioxide</t>
   </si>
   <si>
@@ -80,19 +77,19 @@
     <t>Pre</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Triglyercides too high to calculate LDL</t>
-  </si>
-  <si>
-    <t>Detected hemolysis, may make potassium value inaccurate</t>
-  </si>
-  <si>
     <t>PYY</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>SubjectID</t>
   </si>
 </sst>
 </file>
@@ -444,15 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD896A11-D370-4BA1-8A2D-835274F8A38E}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -466,48 +469,48 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
       <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -558,12 +561,12 @@
         <v>742.9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>94</v>
@@ -614,12 +617,12 @@
         <v>490.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -670,12 +673,12 @@
         <v>59.18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>91</v>
@@ -726,12 +729,12 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>97</v>
@@ -782,12 +785,12 @@
         <v>47.07</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>88</v>
@@ -838,12 +841,12 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>96</v>
@@ -894,12 +897,12 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>88</v>
@@ -950,12 +953,12 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>90</v>
@@ -1006,12 +1009,12 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>128</v>
@@ -1046,11 +1049,11 @@
       <c r="M11">
         <v>37</v>
       </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" t="s">
-        <v>16</v>
+      <c r="N11">
+        <v>97.7</v>
+      </c>
+      <c r="O11">
+        <v>1.7</v>
       </c>
       <c r="P11">
         <v>0.6</v>
@@ -1061,16 +1064,13 @@
       <c r="R11">
         <v>149</v>
       </c>
-      <c r="T11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>87</v>
@@ -1121,12 +1121,12 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1008</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>95</v>
@@ -1177,12 +1177,12 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1009</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>94</v>
@@ -1232,16 +1232,13 @@
       <c r="R14">
         <v>30.92</v>
       </c>
-      <c r="T14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1009</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>89</v>
@@ -1292,12 +1289,12 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1010</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>84</v>
@@ -1348,12 +1345,12 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1010</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>98</v>
@@ -1404,12 +1401,12 @@
         <v>38.19</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1012</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>88</v>
@@ -1460,12 +1457,12 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1012</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>95</v>
@@ -1516,12 +1513,12 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1013</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>90</v>
@@ -1572,12 +1569,12 @@
         <v>71.53</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1013</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>84</v>
@@ -1628,12 +1625,12 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1015</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>94</v>
@@ -1684,12 +1681,12 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1015</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>93</v>
@@ -1741,7 +1738,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
     <sortCondition ref="A2:A23"/>
     <sortCondition descending="1" ref="B2:B23"/>
   </sortState>
